--- a/Fantasy Football/2019/Work/Trade Sheet.xlsx
+++ b/Fantasy Football/2019/Work/Trade Sheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +247,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -501,21 +510,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -561,9 +642,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -630,6 +708,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -650,9 +776,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,7 +1065,7 @@
   <dimension ref="B1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,661 +1076,756 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42">
+      <c r="B3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="55">
         <v>43720</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="25" t="str">
+      <c r="D10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="22" t="str">
         <f>IF(E12&lt;&gt;"",IF(E12&lt;E11, "Yes", "No"), "")</f>
         <v>No</v>
       </c>
-      <c r="F10" s="25" t="str">
+      <c r="F10" s="22" t="str">
         <f>IF(F12&lt;&gt;"",IF(F11&gt;0,IF(F11-F12&lt;0,"Yes","No"),IF(F11-F12&gt;0,"Yes","No")), "")</f>
         <v>No</v>
       </c>
-      <c r="G10" s="25" t="str">
+      <c r="G10" s="22" t="str">
         <f t="shared" ref="G10:S10" si="0">IF(G12&lt;&gt;"",IF(G11&gt;0,IF(G11-G12&lt;0,"Yes","No"),IF(G11-G12&gt;0,"Yes","No")), "")</f>
         <v>No</v>
       </c>
-      <c r="H10" s="29" t="str">
+      <c r="H10" s="40" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="29" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I10" s="22" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="29" t="str">
+        <v>No</v>
+      </c>
+      <c r="J10" s="22" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K10" s="29" t="str">
+        <v>No</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="22" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="29" t="str">
+        <v>No</v>
+      </c>
+      <c r="M10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="29" t="str">
+      <c r="N10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N10" s="29" t="str">
+      <c r="O10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O10" s="29" t="str">
+      <c r="P10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P10" s="29" t="str">
+      <c r="Q10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q10" s="29" t="str">
+      <c r="R10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R10" s="29" t="str">
+      <c r="S10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S10" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="11" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="23">
         <v>-1.7</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="23">
         <v>66.2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="23">
         <v>69.7</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="H11" s="23">
+        <v>3.7</v>
+      </c>
+      <c r="I11" s="23">
+        <v>-57.9</v>
+      </c>
+      <c r="J11" s="23">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K11" s="23">
+        <v>64.3</v>
+      </c>
+      <c r="L11" s="23">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="42"/>
+    </row>
+    <row r="12" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="D12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="50">
         <f>IF(E15&lt;&gt;"",IF(E15&lt;&gt;0, E16-E17, "N/A"), "")</f>
         <v>-0.69999999999999929</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="48">
         <f t="shared" ref="F12:S12" si="1">IF(F15&lt;&gt;"",IF(F15&lt;&gt;0, F16-F17, "N/A"), "")</f>
         <v>13.4</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="50">
         <f t="shared" si="1"/>
         <v>-3.8</v>
       </c>
-      <c r="H12" s="30" t="str">
+      <c r="H12" s="48">
+        <f>IF(H15&lt;&gt;"",IF(H15&lt;&gt;0, H16-H17, "N/A"), "")</f>
+        <v>34.1</v>
+      </c>
+      <c r="I12" s="48">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I12" s="30" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="48">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="30" t="str">
+        <v>13.1</v>
+      </c>
+      <c r="K12" s="47" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K12" s="30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L12" s="48">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L12" s="30" t="str">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M12" s="30" t="str">
+      <c r="N12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N12" s="30" t="str">
+      <c r="O12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O12" s="30" t="str">
+      <c r="P12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P12" s="30" t="str">
+      <c r="Q12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q12" s="30" t="str">
+      <c r="R12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R12" s="30" t="str">
+      <c r="S12" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S12" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="13" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="17"/>
+      <c r="D13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="24">
+        <v>-26.6</v>
+      </c>
+      <c r="J13" s="24">
+        <v>-3.7</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
+        <v>-8.4</v>
+      </c>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="15"/>
     </row>
     <row r="14" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="17"/>
+      <c r="D14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="24">
+        <v>-6.8</v>
+      </c>
+      <c r="J14" s="24">
+        <v>-3.7</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="28">
+      <c r="D15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="25">
         <v>12.4</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="25">
         <v>23.8</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="25">
         <v>7.3</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="3"/>
+      <c r="H15" s="25">
+        <v>34.1</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="25">
+        <v>13.1</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
+        <v>16</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>19.600000000000001</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="29">
         <v>12.4</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="29">
         <v>23.8</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="29">
         <v>7.3</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="4"/>
+      <c r="H16" s="29">
+        <v>34.1</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="29">
+        <v>13.1</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>16</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="2"/>
     </row>
     <row r="17" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="21">
         <v>19.5</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="30">
         <v>13.1</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="30">
         <v>10.4</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="30">
         <v>11.1</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="5"/>
+      <c r="H17" s="30">
+        <v>0</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+      <c r="K17" s="30">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L17" s="30">
+        <v>6.3</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0</v>
-      </c>
-      <c r="F18" s="41">
+      <c r="D18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="38">
         <v>10.4</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="38">
         <v>11.1</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="2"/>
+      <c r="H18" s="38">
+        <v>0</v>
+      </c>
+      <c r="I18" s="38">
+        <v>0</v>
+      </c>
+      <c r="J18" s="38">
+        <v>0</v>
+      </c>
+      <c r="K18" s="38">
+        <v>0</v>
+      </c>
+      <c r="L18" s="38">
+        <v>6.3</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="44"/>
     </row>
     <row r="19" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="16">
         <v>13.1</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="17"/>
-    </row>
-    <row r="20" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
+      <c r="F19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0</v>
+      </c>
+      <c r="J19" s="24">
+        <v>0</v>
+      </c>
+      <c r="K19" s="24">
+        <v>7.1</v>
+      </c>
+      <c r="L19" s="24">
+        <v>-7.3</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="17"/>
-    </row>
-    <row r="21" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="F20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24">
+        <v>0</v>
+      </c>
+      <c r="K20" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L20" s="24">
+        <v>-7.3</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="15"/>
+    </row>
+    <row r="21" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="19" t="str">
+      <c r="D21" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="54" t="str">
         <f>IF(E18&lt;&gt;"", IF(E18&lt;&gt;0, E17-E16, "N/A"), "")</f>
         <v>N/A</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="50">
         <f t="shared" ref="F21:S21" si="2">IF(F18&lt;&gt;"", IF(F18&lt;&gt;0, F17-F16, "N/A"), "")</f>
         <v>-13.4</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="48">
         <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
-      <c r="H21" s="30" t="str">
+      <c r="H21" s="50">
+        <v>-34.1</v>
+      </c>
+      <c r="I21" s="50">
+        <v>-0.8</v>
+      </c>
+      <c r="J21" s="47" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I21" s="30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K21" s="47" t="str">
+        <f>IF(K18&lt;&gt;"", IF(K18&lt;&gt;0, K17-K16, "N/A"), "")</f>
+        <v>N/A</v>
+      </c>
+      <c r="L21" s="50">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J21" s="30" t="str">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="M21" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K21" s="30" t="str">
+      <c r="N21" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L21" s="30" t="str">
+      <c r="O21" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M21" s="30" t="str">
+      <c r="P21" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N21" s="30" t="str">
+      <c r="Q21" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O21" s="30" t="str">
+      <c r="R21" s="52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P21" s="30" t="str">
+      <c r="S21" s="53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S21" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
     </row>
     <row r="22" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="14">
         <v>-53.3</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="23">
         <v>28.9</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="23">
         <v>-48.4</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="17"/>
+      <c r="H22" s="23">
+        <v>-7.2</v>
+      </c>
+      <c r="I22" s="23">
+        <v>-17.8</v>
+      </c>
+      <c r="J22" s="23">
+        <v>-26.1</v>
+      </c>
+      <c r="K22" s="23">
+        <v>-21.8</v>
+      </c>
+      <c r="L22" s="23">
+        <v>-13.4</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="21" t="str">
+      <c r="D23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="18" t="str">
         <f>IF(E21&lt;&gt;"",IF(E21&lt;E22, "Yes", "No"), "")</f>
         <v>No</v>
       </c>
-      <c r="F23" s="39" t="str">
+      <c r="F23" s="36" t="str">
         <f>IF(F21&lt;&gt;"",IF(F22&gt;0,IF(F22-F21&lt;0,"Yes","No"),IF(F22-F21&gt;0,"Yes","No")), "")</f>
         <v>No</v>
       </c>
-      <c r="G23" s="39" t="str">
+      <c r="G23" s="36" t="str">
         <f t="shared" ref="G23:S23" si="3">IF(G21&lt;&gt;"",IF(G22&gt;0,IF(G22-G21&lt;0,"Yes","No"),IF(G22-G21&gt;0,"Yes","No")), "")</f>
         <v>No</v>
       </c>
-      <c r="H23" s="31" t="str">
+      <c r="H23" s="41" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I23" s="31" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I23" s="36" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J23" s="31" t="str">
+        <v>No</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="36" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K23" s="31" t="str">
+        <v>No</v>
+      </c>
+      <c r="M23" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L23" s="31" t="str">
+      <c r="N23" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M23" s="31" t="str">
+      <c r="O23" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N23" s="31" t="str">
+      <c r="P23" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O23" s="31" t="str">
+      <c r="Q23" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P23" s="31" t="str">
+      <c r="R23" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S23" s="31" t="str">
+      <c r="S23" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1619,12 +1837,16 @@
       </c>
       <c r="E25" s="1">
         <f>SUM(E12:S12)</f>
-        <v>8.9000000000000021</v>
+        <v>66.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="E26" s="1">
+        <f>SUMIFS(D15:S15, D15:S15, "&lt;&gt;0", D15:S15, "&lt;&gt;'N/A'", D15:S15, "&lt;&gt;''")-21.5</f>
+        <v>85.999999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1865,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,259 +1876,263 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42">
+      <c r="B3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="55">
         <v>43720</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="D10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="29" t="str">
-        <f t="shared" ref="G10:S10" si="0">IF(H12&lt;&gt;"",IF(H11&gt;0,IF(H11-H12&lt;0,"Yes","No"),IF(H11-H12&gt;0,"Yes","No")), "")</f>
-        <v/>
-      </c>
-      <c r="I10" s="29" t="str">
+      <c r="H10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f t="shared" ref="I10:S10" si="0">IF(I12&lt;&gt;"",IF(I11&gt;0,IF(I11-I12&lt;0,"Yes","No"),IF(I11-I12&gt;0,"Yes","No")), "")</f>
+        <v>No</v>
+      </c>
+      <c r="J10" s="22" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="29" t="str">
+        <v>No</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" s="29" t="str">
+      <c r="N10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L10" s="29" t="str">
+      <c r="O10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="29" t="str">
+      <c r="P10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N10" s="29" t="str">
+      <c r="Q10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O10" s="29" t="str">
+      <c r="R10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P10" s="29" t="str">
+      <c r="S10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q10" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R10" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S10" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="23">
         <v>69.7</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="23">
+        <v>3.7</v>
+      </c>
+      <c r="I11" s="23">
+        <v>-57.9</v>
+      </c>
+      <c r="J11" s="23">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K11" s="23">
+        <v>64.3</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="42"/>
+    </row>
+    <row r="12" spans="1:19" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="23" t="str">
-        <f t="shared" ref="F12:S12" si="1">IF(G15&lt;&gt;"",IF(G15&lt;&gt;0, G16-G17, "N/A"), "")</f>
+      <c r="D12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="47" t="str">
+        <f t="shared" ref="G12:S12" si="1">IF(G15&lt;&gt;"",IF(G15&lt;&gt;0, G16-G17, "N/A"), "")</f>
         <v>N/A</v>
       </c>
-      <c r="H12" s="30" t="str">
+      <c r="H12" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="50">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I12" s="30" t="str">
+        <v>-6.8</v>
+      </c>
+      <c r="J12" s="48">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="30" t="str">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="K12" s="49" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K12" s="30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L12" s="47" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L12" s="30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="M12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M12" s="30" t="str">
+      <c r="N12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N12" s="30" t="str">
+      <c r="O12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O12" s="30" t="str">
+      <c r="P12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P12" s="30" t="str">
+      <c r="Q12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q12" s="30" t="str">
+      <c r="R12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R12" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S12" s="17" t="str">
+      <c r="S12" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1914,420 +2140,533 @@
     <row r="13" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="17"/>
+      <c r="D13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="24">
+        <v>5.8</v>
+      </c>
+      <c r="I13" s="24">
+        <v>-21.1</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="L13" s="24">
+        <v>21</v>
+      </c>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="17"/>
+      <c r="D14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <v>-21.1</v>
+      </c>
+      <c r="J14" s="37">
+        <v>0</v>
+      </c>
+      <c r="K14" s="37">
+        <v>0</v>
+      </c>
+      <c r="L14" s="24">
+        <v>21</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="3"/>
+      <c r="D15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="J15" s="25">
+        <v>7.9</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="22">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32">
-        <v>0</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="4"/>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="I16" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="J16" s="29">
+        <v>7.9</v>
+      </c>
+      <c r="K16" s="29">
+        <v>10.4</v>
+      </c>
+      <c r="L16" s="29">
+        <v>24.4</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="21">
         <v>7.2</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>15.8</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="21">
         <v>10.8</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="30">
         <v>14.7</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="5"/>
+      <c r="H17" s="30">
+        <v>0</v>
+      </c>
+      <c r="I17" s="30">
+        <v>13.1</v>
+      </c>
+      <c r="J17" s="30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="41">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="2"/>
+      <c r="D18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="38">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38">
+        <v>0</v>
+      </c>
+      <c r="I18" s="38">
+        <v>13.1</v>
+      </c>
+      <c r="J18" s="38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="D19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="24">
         <v>14.7</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="17"/>
-    </row>
-    <row r="20" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37">
+        <v>0</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="27">
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="24">
         <v>3.6</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="17"/>
-    </row>
-    <row r="21" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24">
+        <v>-12.4</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="40">
+      <c r="D21" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="48">
         <v>14.7</v>
       </c>
-      <c r="H21" s="30" t="str">
-        <f t="shared" ref="F21:S21" si="2">IF(H18&lt;&gt;"", IF(H18&lt;&gt;0, H17-H16, "N/A"), "")</f>
-        <v/>
-      </c>
-      <c r="I21" s="30" t="str">
+      <c r="H21" s="49" t="str">
+        <f>IF(H18&lt;&gt;"", IF(H18&lt;&gt;0, H17-H16, "N/A"), "")</f>
+        <v>N/A</v>
+      </c>
+      <c r="I21" s="48">
+        <f t="shared" ref="I21:J21" si="2">IF(I18&lt;&gt;"", IF(I18&lt;&gt;0, I17-I16, "N/A"), "")</f>
+        <v>6.8</v>
+      </c>
+      <c r="J21" s="50">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R21" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S21" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>-5.6000000000000005</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="51" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="26">
+      <c r="D22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="23">
         <v>-48.4</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="17"/>
+      <c r="H22" s="23">
+        <v>-7.2</v>
+      </c>
+      <c r="I22" s="23">
+        <v>-17.8</v>
+      </c>
+      <c r="J22" s="23">
+        <v>-26.1</v>
+      </c>
+      <c r="K22" s="23">
+        <v>-21.8</v>
+      </c>
+      <c r="L22" s="23">
+        <v>-13.4</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="39" t="str">
-        <f t="shared" ref="G23:S23" si="3">IF(G21&lt;&gt;"",IF(G22&gt;0,IF(G22-G21&lt;0,"Yes","No"),IF(G22-G21&gt;0,"Yes","No")), "")</f>
+      <c r="D23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="36" t="str">
+        <f t="shared" ref="G23:J23" si="3">IF(G21&lt;&gt;"",IF(G22&gt;0,IF(G22-G21&lt;0,"Yes","No"),IF(G22-G21&gt;0,"Yes","No")), "")</f>
         <v>No</v>
       </c>
-      <c r="H23" s="31" t="str">
+      <c r="H23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="36" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I23" s="31" t="str">
+        <v>No</v>
+      </c>
+      <c r="J23" s="36" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S23" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v>No</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -2359,7 +2698,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1">
         <f>SUM(E12:S12)</f>
-        <v>0</v>
+        <v>-1.1999999999999993</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2383,7 +2722,10 @@
         <v>35</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <f>SUMIFS(D15:S15, D15:S15, "&lt;&gt;0", D15:S15, "&lt;&gt;'N/A'", D15:S15, "&lt;&gt;''")-15.4</f>
+        <v>-1.2000000000000011</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2406,5 +2748,6 @@
     <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fantasy Football/2019/Work/Trade Sheet.xlsx
+++ b/Fantasy Football/2019/Work/Trade Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes*</t>
+  </si>
+  <si>
+    <t>* Since the teams played each other this week, the differential is doubled. In addition to the other trade from sheet 2, the total differential is 44.4 + 39.6</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -755,6 +761,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1062,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S26"/>
+  <dimension ref="B1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,32 +1085,32 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="56">
         <v>43720</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
@@ -1205,13 +1214,12 @@
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="M10" s="26" t="str">
+      <c r="M10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="22" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>No</v>
       </c>
       <c r="O10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -1265,8 +1273,12 @@
       <c r="L11" s="23">
         <v>69.400000000000006</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
+      <c r="M11" s="23">
+        <v>61.1</v>
+      </c>
+      <c r="N11" s="23">
+        <v>-5.7</v>
+      </c>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
@@ -1312,13 +1324,13 @@
         <f t="shared" si="1"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="M12" s="52" t="str">
+      <c r="M12" s="52">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N12" s="52" t="str">
+        <v>22.2</v>
+      </c>
+      <c r="N12" s="52">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-4.8999999999999995</v>
       </c>
       <c r="O12" s="52" t="str">
         <f t="shared" si="1"/>
@@ -1373,7 +1385,9 @@
         <v>-8.4</v>
       </c>
       <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
+      <c r="N13" s="27">
+        <v>0</v>
+      </c>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
@@ -1412,7 +1426,9 @@
         <v>28</v>
       </c>
       <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="N14" s="24">
+        <v>-24.9</v>
+      </c>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
@@ -1450,8 +1466,12 @@
       <c r="L15" s="25">
         <v>16</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="M15" s="25">
+        <v>26.2</v>
+      </c>
+      <c r="N15" s="25">
+        <v>5.3</v>
+      </c>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
@@ -1492,8 +1512,12 @@
       <c r="L16" s="29">
         <v>16</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="M16" s="29">
+        <v>26.2</v>
+      </c>
+      <c r="N16" s="29">
+        <v>5.3</v>
+      </c>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
@@ -1534,8 +1558,12 @@
       <c r="L17" s="30">
         <v>6.3</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="M17" s="30">
+        <v>4</v>
+      </c>
+      <c r="N17" s="30">
+        <v>10.199999999999999</v>
+      </c>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -1573,8 +1601,12 @@
       <c r="L18" s="38">
         <v>6.3</v>
       </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="M18" s="38">
+        <v>0</v>
+      </c>
+      <c r="N18" s="38">
+        <v>10.199999999999999</v>
+      </c>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
@@ -1612,7 +1644,9 @@
       <c r="L19" s="24">
         <v>-7.3</v>
       </c>
-      <c r="M19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
@@ -1651,7 +1685,9 @@
       <c r="L20" s="24">
         <v>-7.3</v>
       </c>
-      <c r="M20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
@@ -1696,13 +1732,12 @@
         <f t="shared" si="2"/>
         <v>-9.6999999999999993</v>
       </c>
-      <c r="M21" s="52" t="str">
+      <c r="M21" s="52">
+        <v>-22.2</v>
+      </c>
+      <c r="N21" s="52">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N21" s="52" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>4.8999999999999995</v>
       </c>
       <c r="O21" s="52" t="str">
         <f t="shared" si="2"/>
@@ -1756,8 +1791,12 @@
       <c r="L22" s="23">
         <v>-13.4</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
+      <c r="M22" s="23">
+        <v>-61.1</v>
+      </c>
+      <c r="N22" s="23">
+        <v>-29.9</v>
+      </c>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
@@ -1801,13 +1840,12 @@
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="M23" s="28" t="str">
+      <c r="M23" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="36" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N23" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>No</v>
       </c>
       <c r="O23" s="28" t="str">
         <f t="shared" si="3"/>
@@ -1837,7 +1875,7 @@
       </c>
       <c r="E25" s="1">
         <f>SUM(E12:S12)</f>
-        <v>66.599999999999994</v>
+        <v>83.899999999999991</v>
       </c>
     </row>
     <row r="26" spans="2:19" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1846,7 +1884,12 @@
       </c>
       <c r="E26" s="1">
         <f>SUMIFS(D15:S15, D15:S15, "&lt;&gt;0", D15:S15, "&lt;&gt;'N/A'", D15:S15, "&lt;&gt;''")-21.5</f>
-        <v>85.999999999999986</v>
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="C30" s="55" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1864,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,32 +1919,32 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="56">
         <v>43720</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
@@ -2002,9 +2045,8 @@
       <c r="L10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="M10" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="N10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2062,7 +2104,9 @@
         <v>64.3</v>
       </c>
       <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="M11" s="23">
+        <v>66.099999999999994</v>
+      </c>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
@@ -2295,7 +2339,9 @@
       <c r="L16" s="29">
         <v>24.4</v>
       </c>
-      <c r="M16" s="29"/>
+      <c r="M16" s="29">
+        <v>19.8</v>
+      </c>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -2616,7 +2662,9 @@
       <c r="L22" s="23">
         <v>-13.4</v>
       </c>
-      <c r="M22" s="23"/>
+      <c r="M22" s="23">
+        <v>-66.099999999999994</v>
+      </c>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
@@ -2660,7 +2708,9 @@
       <c r="L23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="28"/>
+      <c r="M23" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
